--- a/Rnew_bats/BatOccu2.xlsx
+++ b/Rnew_bats/BatOccu2.xlsx
@@ -427,10 +427,10 @@
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="U1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
-      <selection pane="bottomLeft" activeCell="U5" activeCellId="0" sqref="U5"/>
+      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="AH5" activeCellId="0" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1059,21 +1059,34 @@
       <c r="R5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="S5" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="T5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="U5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="Z5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AA5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AB5" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="AC5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="AD5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="AE5" s="1"/>
       <c r="AF5" s="0" t="n">
         <v>0</v>
       </c>
@@ -1120,6 +1133,129 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>56</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Rnew_bats/BatOccu2.xlsx
+++ b/Rnew_bats/BatOccu2.xlsx
@@ -427,10 +427,10 @@
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="V1" activeCellId="0" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="AH5" activeCellId="0" sqref="AH5"/>
+      <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomLeft" activeCell="AN5" activeCellId="0" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1091,6 +1091,9 @@
         <v>0</v>
       </c>
       <c r="AG5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="AI5" s="0" t="n">
